--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2232590.85839173</v>
+        <v>-2236730.564805687</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14650058.42042742</v>
+        <v>14647108.52347533</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>142.0647618723497</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.26034571629072</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>51.38438798459939</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -753,7 +753,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072217</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58931631791176</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -838,7 +838,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.92740900290721</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.2881035659926</v>
+        <v>188.1564980159213</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2025521177875</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072217</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>102.5323887172577</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091457</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>115.6967434287788</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131.9625752379539</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>29.62616891132716</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.7408656320216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>27.32710805344507</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>262.3100303792481</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>102.6924449748536</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2033961684802</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>98.00967183005974</v>
+        <v>120.0961968842579</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.145447509650376</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>167.638935514039</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927754</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,13 +2378,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574963</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564975</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167808</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196048</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380021</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667932</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644659</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883872</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541077</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.9835613365827</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038614</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656593</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277697</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.51614156087</v>
+        <v>1727.156109576471</v>
       </c>
       <c r="C2" t="n">
-        <v>1334.51614156087</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.51614156087</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774147</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>43.495659394755</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>259.7298875736938</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>259.7298875736938</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>773.3325661833811</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.868375788301</v>
+        <v>1286.935244793068</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1726.974845685397</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678801</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238217</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="U2" t="n">
-        <v>1735.010887272267</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="V2" t="n">
-        <v>1735.010887272267</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="W2" t="n">
-        <v>1735.010887272267</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="X2" t="n">
-        <v>1735.010887272267</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.010887272267</v>
+        <v>1870.655869043491</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021451</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>603.9099956954791</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>473.8210283169594</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>337.3745374278471</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>212.942731310979</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>92.88291338284341</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>43.495659394755</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.495659394755</v>
+        <v>330.0258031443404</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>813.5918890426536</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202784</v>
+        <v>1327.194567652341</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021353</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675992</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431065</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1606.013775910829</v>
+        <v>498.330277058321</v>
       </c>
       <c r="C4" t="n">
-        <v>1592.287193771524</v>
+        <v>498.330277058321</v>
       </c>
       <c r="D4" t="n">
-        <v>1592.287193771524</v>
+        <v>498.330277058321</v>
       </c>
       <c r="E4" t="n">
-        <v>1592.287193771524</v>
+        <v>498.330277058321</v>
       </c>
       <c r="F4" t="n">
-        <v>1592.287193771524</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G4" t="n">
-        <v>1592.287193771524</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>1436.808642733018</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370096</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196198</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306139</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179939</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518203</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549412</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.48460759112</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367699</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.78296973775</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.78296973775</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.78296973775</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.78296973775</v>
+        <v>783.76906881642</v>
       </c>
       <c r="U4" t="n">
-        <v>1889.344177979651</v>
+        <v>498.330277058321</v>
       </c>
       <c r="V4" t="n">
-        <v>1889.344177979651</v>
+        <v>498.330277058321</v>
       </c>
       <c r="W4" t="n">
-        <v>1606.013775910829</v>
+        <v>498.330277058321</v>
       </c>
       <c r="X4" t="n">
-        <v>1606.013775910829</v>
+        <v>498.330277058321</v>
       </c>
       <c r="Y4" t="n">
-        <v>1606.013775910829</v>
+        <v>498.330277058321</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8922126370105</v>
+        <v>859.2386590380743</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8922126370105</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8922126370105</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>63.47963265754933</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793115</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>43.495659394755</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>82.3595570991958</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>575.6798488177246</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827818</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.74991746528</v>
+        <v>2065.661024630532</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>2065.661024630532</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523739</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958338</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661856</v>
+        <v>1049.295727741025</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661856</v>
+        <v>1049.295727741025</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.916359661856</v>
+        <v>1049.295727741025</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.4256505824576</v>
+        <v>1049.295727741025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835.1276348266379</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>684.4734043867301</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>554.3844370082104</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>417.9379461190981</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>293.5061400022299</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.608572686802</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.867357696895</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O6" t="n">
-        <v>2069.387640287876</v>
+        <v>1669.540969100521</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675992</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>986.9239692675992</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.495659394755</v>
+        <v>300.5498672062158</v>
       </c>
       <c r="C7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="D7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="E7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="F7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="G7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>43.495659394755</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>43.495659394755</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X7" t="n">
-        <v>43.495659394755</v>
+        <v>708.8699470808738</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.495659394755</v>
+        <v>485.7578858975171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.2015168265441</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="C8" t="n">
-        <v>588.0260153294746</v>
+        <v>186.1547534055614</v>
       </c>
       <c r="D8" t="n">
-        <v>202.5848865461423</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>202.5848865461423</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>189.7308521165242</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>180.6085006449314</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>180.6085006449314</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
         <v>1577.42141205333</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1771.148867604884</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1381.696262537941</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1381.696262537941</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2102.924460494948</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="C10" t="n">
-        <v>1932.719342560937</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="D10" t="n">
-        <v>1777.086229463452</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="E10" t="n">
-        <v>1621.527417322655</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="F10" t="n">
-        <v>1464.201482535628</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>1464.201482535628</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N10" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O10" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P10" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>2365.64850507718</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X10" t="n">
-        <v>2365.64850507718</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y10" t="n">
-        <v>2288.132479186249</v>
+        <v>431.3492683572568</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1439.569462514561</v>
+        <v>1653.0370227692</v>
       </c>
       <c r="C11" t="n">
-        <v>1118.190236163685</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>804.5453825265469</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7581327892851</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>128.6599694654568</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3078.353245757852</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2894.396791338645</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="W11" t="n">
-        <v>2410.618696933719</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="X11" t="n">
-        <v>2092.962367012969</v>
+        <v>2306.429927267608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1768.267933079764</v>
+        <v>1981.735493334403</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.2779458817299</v>
+        <v>571.3326729474579</v>
       </c>
       <c r="C13" t="n">
-        <v>327.8691030939129</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D13" t="n">
-        <v>327.8691030939129</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245442</v>
+        <v>1209.87837652318</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245442</v>
+        <v>1209.87837652318</v>
       </c>
       <c r="W13" t="n">
-        <v>739.8777789897157</v>
+        <v>998.3442496005512</v>
       </c>
       <c r="X13" t="n">
-        <v>577.5937319188927</v>
+        <v>836.060202529728</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.2779458817299</v>
+        <v>684.7444164925653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>403.4856080699184</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2912.239436777809</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.03667689229</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2295.380346971541</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.955155295389</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="C16" t="n">
-        <v>376.5463125075721</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7094745562806</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616769</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1493.55542210779</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1362.535613436534</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.712833143251</v>
+        <v>1198.612836750962</v>
       </c>
       <c r="U16" t="n">
-        <v>1152.070316531345</v>
+        <v>984.9703201390569</v>
       </c>
       <c r="V16" t="n">
-        <v>957.8872464983637</v>
+        <v>790.787250106075</v>
       </c>
       <c r="W16" t="n">
-        <v>788.5549884033749</v>
+        <v>579.2531231834466</v>
       </c>
       <c r="X16" t="n">
-        <v>626.2709413325517</v>
+        <v>416.9690761126237</v>
       </c>
       <c r="Y16" t="n">
-        <v>474.955155295389</v>
+        <v>416.9690761126237</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924184</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,10 +5540,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5601,13 +5601,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.202330875214</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.722613466195</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,10 +5777,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6236,40 +6236,40 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485128</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.39538810703</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238552</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225747</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6458,34 +6458,34 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414153</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796863</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835477</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>621.353005291503</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737102</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508753</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873285</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765613</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861583</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929701</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404847</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.671358424525</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652529</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597513</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407223</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.7304500837417</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>342.9206752648156</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>612.8479737408591</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>910.7916726541062</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904819</v>
+        <v>1093.981306685315</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1256.686073727023</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503602</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250158</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273655</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400685</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045771</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027459</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,7 +6965,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343036</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655128</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,22 +7199,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,40 +7342,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655128</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7822,34 +7822,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>217.3784717737094</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376815</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>266.7763031800754</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>281.6000393495241</v>
+        <v>611.1777065035416</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886042</v>
+        <v>604.1626973083963</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>182.3148655069553</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>159.8987332877808</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837494</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>285.3870922018722</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431186</v>
       </c>
       <c r="P6" t="n">
-        <v>193.5432935565614</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,10 +8459,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N8" t="n">
-        <v>282.2547480662842</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>433.2773539239171</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>122.8601759680004</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>33.90070190741532</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>108.8136464709325</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>15.21538948492199</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>169.5977569787251</v>
+        <v>147.5112319245269</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>48.43821956936643</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77985013936322</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1280607.318859466</v>
+        <v>1279103.449825065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1280607.318859466</v>
+        <v>1279103.449825065</v>
       </c>
     </row>
     <row r="4">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36066.43561867137</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="C2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="D2" t="n">
         <v>36066.43561867136</v>
       </c>
       <c r="E2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="F2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="G2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="H2" t="n">
         <v>36066.43561867136</v>
       </c>
       <c r="I2" t="n">
-        <v>36066.43561867137</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="J2" t="n">
+        <v>36066.43561867131</v>
+      </c>
+      <c r="K2" t="n">
         <v>36066.43561867128</v>
       </c>
-      <c r="K2" t="n">
-        <v>36066.43561867127</v>
-      </c>
       <c r="L2" t="n">
+        <v>36066.43561867138</v>
+      </c>
+      <c r="M2" t="n">
         <v>36066.43561867133</v>
       </c>
-      <c r="M2" t="n">
-        <v>36066.43561867135</v>
-      </c>
       <c r="N2" t="n">
-        <v>36066.43561867134</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="O2" t="n">
         <v>36066.43561867136</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401375</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728543</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761035</v>
@@ -26436,7 +26436,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,10 +26445,10 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,19 +26491,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434377.4248621495</v>
+        <v>-429725.2052409743</v>
       </c>
       <c r="C6" t="n">
-        <v>-252172.4765702935</v>
+        <v>-255866.5482069195</v>
       </c>
       <c r="D6" t="n">
-        <v>-259917.0572739139</v>
+        <v>-267653.3464973059</v>
       </c>
       <c r="E6" t="n">
-        <v>-272042.7369735263</v>
+        <v>-272252.4685202159</v>
       </c>
       <c r="F6" t="n">
-        <v>-159920.1754994817</v>
+        <v>-160129.9070461714</v>
       </c>
       <c r="G6" t="n">
-        <v>-255893.5362096338</v>
+        <v>-255893.5362096337</v>
       </c>
       <c r="H6" t="n">
         <v>-208468.2106729518</v>
       </c>
       <c r="I6" t="n">
-        <v>-208468.2106729518</v>
+        <v>-208468.2106729519</v>
       </c>
       <c r="J6" t="n">
-        <v>-421510.1282702376</v>
+        <v>-414993.843115664</v>
       </c>
       <c r="K6" t="n">
-        <v>-214707.979075735</v>
+        <v>-214707.9790757349</v>
       </c>
       <c r="L6" t="n">
-        <v>-269890.5680103559</v>
+        <v>-273939.4052208283</v>
       </c>
       <c r="M6" t="n">
-        <v>-250669.0401325749</v>
+        <v>-251720.735143763</v>
       </c>
       <c r="N6" t="n">
-        <v>-208468.2106729518</v>
+        <v>-208468.2106729519</v>
       </c>
       <c r="O6" t="n">
-        <v>-236235.904715723</v>
+        <v>-236235.9047157231</v>
       </c>
       <c r="P6" t="n">
         <v>-208468.2106729518</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293128</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660679</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551369</v>
+        <v>17.58004954287414</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971636</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>254.4250363819332</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9348565534567</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>97.76330015090932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758589</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>154.9137504367589</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,7 +27549,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>198.434452310541</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174.2016946882903</v>
+        <v>208.3333002383616</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.656667631066654</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758589</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>65.97067803741297</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>265.8899740667202</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>4.991170500505916</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>124.4506130551832</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395015</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,16 +28755,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29104,7 +29104,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901351</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431681</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833472</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683159573</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224684</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254421</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,46 +30141,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634530087</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634527699</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.359969315583</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30414,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30639,28 +30639,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>35.71049010668801</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>74.32006859447199</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135851</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>177.1793678467421</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>189.2129173002122</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>39.25646232771798</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>9.597286046855608</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344375</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>200.0149793477056</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="P6" t="n">
-        <v>106.4599287372467</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,10 +35179,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N8" t="n">
-        <v>133.1362567285001</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>144.92591800486</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>330.4341341043864</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>346.1939891046024</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039247</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963368</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201143</v>
+        <v>475.3883602044898</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381834</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.70543230055111</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>272.6538368444884</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496231</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565501</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873196</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37710,16 +37710,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094865</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
